--- a/maze/metricasPrim.xlsx
+++ b/maze/metricasPrim.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="metricasPrim" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>junctions</t>
   </si>
@@ -47,11 +47,53 @@
   <si>
     <t>GBFVisitados</t>
   </si>
+  <si>
+    <t>Junctions</t>
+  </si>
+  <si>
+    <t>Crossroads</t>
+  </si>
+  <si>
+    <t>Deadends</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Prim</t>
+  </si>
+  <si>
+    <t>Tamanho do caminho (células)</t>
+  </si>
+  <si>
+    <t>Porcentagem de células visitadas</t>
+  </si>
+  <si>
+    <t>A*</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>GBF</t>
+  </si>
+  <si>
+    <t>Resolução Prim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -484,8 +526,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -528,11 +585,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -572,6 +636,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -886,15 +951,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F604"/>
+  <dimension ref="A1:N604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.23319999999999999</v>
       </c>
@@ -915,8 +995,19 @@
       <c r="C2">
         <v>0.35439999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.23769999999999999</v>
       </c>
@@ -926,8 +1017,23 @@
       <c r="C3">
         <v>0.36230000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.23350000000000001</v>
       </c>
@@ -937,8 +1043,35 @@
       <c r="C4">
         <v>0.35909999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.2331</v>
       </c>
@@ -948,8 +1081,44 @@
       <c r="C5">
         <v>0.3599</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <f>AVERAGE(A2:A301)</f>
+        <v>0.23342200000000018</v>
+      </c>
+      <c r="G5" s="4">
+        <f>MAX(A2:A301)</f>
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="H5" s="4">
+        <f>MIN(A2:A301)</f>
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="I5" s="4">
+        <f>AVERAGE(B2:B301)</f>
+        <v>6.1326999999999986E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <f>MAX(B2:B301)</f>
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <f>MIN(B2:B301)</f>
+        <v>5.62E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <f>AVERAGE(C2:C301)</f>
+        <v>0.35627600000000004</v>
+      </c>
+      <c r="M5" s="4">
+        <f>MAX(C2:C301)</f>
+        <v>0.3634</v>
+      </c>
+      <c r="N5" s="4">
+        <f>MIN(C2:C301)</f>
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.23319999999999999</v>
       </c>
@@ -960,7 +1129,7 @@
         <v>0.35520000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.22969999999999999</v>
       </c>
@@ -971,7 +1140,7 @@
         <v>0.35770000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.23810000000000001</v>
       </c>
@@ -982,7 +1151,7 @@
         <v>0.3579</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.2394</v>
       </c>
@@ -993,7 +1162,7 @@
         <v>0.3604</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.2361</v>
       </c>
@@ -1004,7 +1173,7 @@
         <v>0.36130000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.23080000000000001</v>
       </c>
@@ -1015,7 +1184,7 @@
         <v>0.3548</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.2394</v>
       </c>
@@ -1026,7 +1195,7 @@
         <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.2324</v>
       </c>
@@ -1037,7 +1206,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.2351</v>
       </c>
@@ -1048,7 +1217,7 @@
         <v>0.35749999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.2298</v>
       </c>
@@ -1059,7 +1228,7 @@
         <v>0.35520000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.23350000000000001</v>
       </c>
@@ -4062,7 +4231,7 @@
         <v>0.3599</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>0.23580000000000001</v>
       </c>
@@ -4073,7 +4242,7 @@
         <v>0.35420000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>0.2306</v>
       </c>
@@ -4084,7 +4253,7 @@
         <v>0.3528</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>0.2366</v>
       </c>
@@ -4095,7 +4264,7 @@
         <v>0.35580000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>0.2339</v>
       </c>
@@ -4106,7 +4275,7 @@
         <v>0.3553</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>0.2346</v>
       </c>
@@ -4117,7 +4286,7 @@
         <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>0.23769999999999999</v>
       </c>
@@ -4128,7 +4297,7 @@
         <v>0.35730000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>0.23799999999999999</v>
       </c>
@@ -4139,7 +4308,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>0.23449999999999999</v>
       </c>
@@ -4150,7 +4319,7 @@
         <v>0.35870000000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>0.23649999999999999</v>
       </c>
@@ -4161,7 +4330,7 @@
         <v>0.35709999999999997</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>0.23180000000000001</v>
       </c>
@@ -4172,7 +4341,7 @@
         <v>0.35220000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>0.23599999999999999</v>
       </c>
@@ -4183,7 +4352,7 @@
         <v>0.3614</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>0.22839999999999999</v>
       </c>
@@ -4194,7 +4363,7 @@
         <v>0.3518</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>0.2356</v>
       </c>
@@ -4205,7 +4374,18 @@
         <v>0.3528</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H303" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I303" s="2"/>
+      <c r="J303" s="2"/>
+      <c r="K303" s="2"/>
+      <c r="L303" s="2"/>
+      <c r="M303" s="2"/>
+      <c r="N303" s="2"/>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -4224,8 +4404,19 @@
       <c r="F304" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H304" s="1"/>
+      <c r="I304" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J304" s="2"/>
+      <c r="K304" s="2"/>
+      <c r="L304" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M304" s="2"/>
+      <c r="N304" s="2"/>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>214</v>
       </c>
@@ -4244,8 +4435,29 @@
       <c r="F305">
         <v>0.99990000000000001</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H305" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K305" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M305" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N305" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>214</v>
       </c>
@@ -4264,8 +4476,33 @@
       <c r="F306">
         <v>0.998</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H306" s="1"/>
+      <c r="I306" s="1">
+        <f>AVERAGE(A305:A604)</f>
+        <v>227.85333333333332</v>
+      </c>
+      <c r="J306" s="1">
+        <f>MAX(A305:A604)</f>
+        <v>284</v>
+      </c>
+      <c r="K306" s="1">
+        <f>MIN(A305:A604)</f>
+        <v>204</v>
+      </c>
+      <c r="L306" s="3">
+        <f>AVERAGE(B305:B604)</f>
+        <v>0.87294199999999966</v>
+      </c>
+      <c r="M306" s="3">
+        <f>MAX(B305:B604)</f>
+        <v>1</v>
+      </c>
+      <c r="N306" s="3">
+        <f>MIN(B305:B604)</f>
+        <v>0.33510000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>220</v>
       </c>
@@ -4284,8 +4521,29 @@
       <c r="F307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H307" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K307" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M307" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N307" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>228</v>
       </c>
@@ -4304,8 +4562,33 @@
       <c r="F308">
         <v>0.99550000000000005</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H308" s="1"/>
+      <c r="I308" s="1">
+        <f>AVERAGE(C305:C604)</f>
+        <v>227.85333333333332</v>
+      </c>
+      <c r="J308" s="1">
+        <f>MAX(C305:C604)</f>
+        <v>284</v>
+      </c>
+      <c r="K308" s="1">
+        <f>MIN(C305:C604)</f>
+        <v>204</v>
+      </c>
+      <c r="L308" s="3">
+        <f>AVERAGE(D305:D604)</f>
+        <v>0.87652899999999956</v>
+      </c>
+      <c r="M308" s="3">
+        <f>MAX(D305:D604)</f>
+        <v>1</v>
+      </c>
+      <c r="N308" s="3">
+        <f>MIN(D305:D604)</f>
+        <v>0.33860000000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>236</v>
       </c>
@@ -4324,8 +4607,29 @@
       <c r="F309">
         <v>0.93240000000000001</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H309" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K309" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N309" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>214</v>
       </c>
@@ -4344,8 +4648,33 @@
       <c r="F310">
         <v>0.73529999999999995</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H310" s="1"/>
+      <c r="I310" s="1">
+        <f>AVERAGE(E305:E604)</f>
+        <v>227.85333333333332</v>
+      </c>
+      <c r="J310" s="1">
+        <f>MAX(E305:E604)</f>
+        <v>284</v>
+      </c>
+      <c r="K310" s="1">
+        <f>MIN(E305:E604)</f>
+        <v>204</v>
+      </c>
+      <c r="L310" s="3">
+        <f>AVERAGE(F305:F604)</f>
+        <v>0.87294199999999966</v>
+      </c>
+      <c r="M310" s="3">
+        <f>MAX(F305:F604)</f>
+        <v>1</v>
+      </c>
+      <c r="N310" s="3">
+        <f>MIN(F305:F604)</f>
+        <v>0.33510000000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>248</v>
       </c>
@@ -4365,7 +4694,7 @@
         <v>0.73680000000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>210</v>
       </c>
@@ -4385,7 +4714,7 @@
         <v>0.60870000000000002</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>226</v>
       </c>
@@ -4405,7 +4734,7 @@
         <v>0.98629999999999995</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>220</v>
       </c>
@@ -4425,7 +4754,7 @@
         <v>0.99939999999999996</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>228</v>
       </c>
@@ -4445,7 +4774,7 @@
         <v>0.80420000000000003</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>224</v>
       </c>
@@ -4465,7 +4794,7 @@
         <v>0.88460000000000005</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>228</v>
       </c>
@@ -4485,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>206</v>
       </c>
@@ -4505,7 +4834,7 @@
         <v>0.78979999999999995</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>262</v>
       </c>
@@ -4525,7 +4854,7 @@
         <v>0.90569999999999995</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>220</v>
       </c>
@@ -10226,6 +10555,15 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I304:K304"/>
+    <mergeCell ref="L304:N304"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="H303:N303"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>